--- a/Project/Project_Teamsv1.xlsx
+++ b/Project/Project_Teamsv1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2023\all\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65C7374F-150B-4AD6-9070-1B68114EEFA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC0348E-07F4-443E-BD85-CBA8CCF9AF40}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{FB947C88-38A9-44E4-AD2E-CBA5303CD158}"/>
   </bookViews>
@@ -482,7 +482,7 @@
   <dimension ref="B2:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="129" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -491,7 +491,7 @@
     <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.5546875" customWidth="1"/>
     <col min="7" max="7" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -574,6 +574,9 @@
       <c r="E8">
         <v>2</v>
       </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
@@ -584,6 +587,9 @@
       <c r="E9">
         <v>2</v>
       </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
@@ -593,6 +599,9 @@
       </c>
       <c r="E10">
         <v>2</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">

--- a/Project/Project_Teamsv1.xlsx
+++ b/Project/Project_Teamsv1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2023\all\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC0348E-07F4-443E-BD85-CBA8CCF9AF40}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41405BA-978A-4333-9034-7559B981FBD8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{FB947C88-38A9-44E4-AD2E-CBA5303CD158}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>ADARSH CHANDRASHEKHAR SHETTY</t>
   </si>
@@ -103,6 +103,15 @@
   </si>
   <si>
     <t>Leader</t>
+  </si>
+  <si>
+    <t>Investment Portfolio</t>
+  </si>
+  <si>
+    <t>Travel Booking Portal</t>
+  </si>
+  <si>
+    <t>Food Review System</t>
   </si>
 </sst>
 </file>
@@ -481,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BBADE0C-4966-4E1F-BDB0-2DD5300A7A8A}">
   <dimension ref="B2:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="129" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="129" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -524,6 +533,9 @@
       <c r="E3">
         <v>1</v>
       </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
@@ -534,6 +546,9 @@
       <c r="E4">
         <v>1</v>
       </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
@@ -544,6 +559,9 @@
       <c r="E5">
         <v>1</v>
       </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
@@ -554,167 +572,194 @@
       <c r="E6">
         <v>1</v>
       </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7">
         <v>1</v>
       </c>
-      <c r="E7">
-        <v>2</v>
+      <c r="F7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
-      <c r="F8">
-        <v>1</v>
+      <c r="F8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
-      <c r="F9">
-        <v>3</v>
+      <c r="F9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
-      <c r="F10">
-        <v>4</v>
+      <c r="F10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E13">
         <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E14">
         <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>

--- a/Project/Project_Teamsv1.xlsx
+++ b/Project/Project_Teamsv1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2023\all\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41405BA-978A-4333-9034-7559B981FBD8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDE7661-5F90-4BD1-B2B7-6F3E07EC5E44}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{FB947C88-38A9-44E4-AD2E-CBA5303CD158}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>ADARSH CHANDRASHEKHAR SHETTY</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>Food Review System</t>
+  </si>
+  <si>
+    <t>Movie Ticket Booking</t>
   </si>
 </sst>
 </file>
@@ -491,7 +494,7 @@
   <dimension ref="B2:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="129" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -728,6 +731,9 @@
       <c r="E18">
         <v>4</v>
       </c>
+      <c r="F18" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
@@ -738,6 +744,9 @@
       <c r="E19">
         <v>4</v>
       </c>
+      <c r="F19" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
@@ -748,6 +757,9 @@
       <c r="E20">
         <v>4</v>
       </c>
+      <c r="F20" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
@@ -757,6 +769,9 @@
       </c>
       <c r="E21">
         <v>4</v>
+      </c>
+      <c r="F21" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">

--- a/Project/Project_Teamsv1.xlsx
+++ b/Project/Project_Teamsv1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2023\all\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDE7661-5F90-4BD1-B2B7-6F3E07EC5E44}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A577931-82C2-4DD4-B47D-1EA77B2CB1A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{FB947C88-38A9-44E4-AD2E-CBA5303CD158}"/>
   </bookViews>
@@ -105,9 +105,6 @@
     <t>Leader</t>
   </si>
   <si>
-    <t>Investment Portfolio</t>
-  </si>
-  <si>
     <t>Travel Booking Portal</t>
   </si>
   <si>
@@ -115,6 +112,9 @@
   </si>
   <si>
     <t>Movie Ticket Booking</t>
+  </si>
+  <si>
+    <t>Expense Tracker</t>
   </si>
 </sst>
 </file>
@@ -494,7 +494,7 @@
   <dimension ref="B2:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="129" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -537,7 +537,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
@@ -550,7 +550,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
@@ -563,7 +563,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
@@ -576,7 +576,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
@@ -589,7 +589,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
@@ -602,7 +602,7 @@
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
@@ -615,7 +615,7 @@
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
@@ -628,7 +628,7 @@
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
@@ -641,7 +641,7 @@
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
@@ -654,7 +654,7 @@
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
@@ -667,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
@@ -680,7 +680,7 @@
         <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
@@ -693,7 +693,7 @@
         <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
@@ -706,7 +706,7 @@
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
@@ -719,7 +719,7 @@
         <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
@@ -732,7 +732,7 @@
         <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
@@ -745,7 +745,7 @@
         <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
@@ -758,7 +758,7 @@
         <v>4</v>
       </c>
       <c r="F20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
@@ -771,7 +771,7 @@
         <v>4</v>
       </c>
       <c r="F21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">

--- a/Project/Project_Teamsv1.xlsx
+++ b/Project/Project_Teamsv1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2023\all\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A577931-82C2-4DD4-B47D-1EA77B2CB1A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054FCAA5-1143-4C24-8272-E77605413714}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{FB947C88-38A9-44E4-AD2E-CBA5303CD158}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
   <si>
     <t>ADARSH CHANDRASHEKHAR SHETTY</t>
   </si>
@@ -87,9 +87,6 @@
     <t>vengalatha M</t>
   </si>
   <si>
-    <t>Email ID</t>
-  </si>
-  <si>
     <t>Associate ID</t>
   </si>
   <si>
@@ -111,17 +108,74 @@
     <t>Food Review System</t>
   </si>
   <si>
-    <t>Movie Ticket Booking</t>
-  </si>
-  <si>
     <t>Expense Tracker</t>
+  </si>
+  <si>
+    <t>565682</t>
+  </si>
+  <si>
+    <t>565718</t>
+  </si>
+  <si>
+    <t>Library Management System</t>
+  </si>
+  <si>
+    <t>565703</t>
+  </si>
+  <si>
+    <t>565702</t>
+  </si>
+  <si>
+    <t>565686</t>
+  </si>
+  <si>
+    <t>565750</t>
+  </si>
+  <si>
+    <t>565684</t>
+  </si>
+  <si>
+    <t>565687</t>
+  </si>
+  <si>
+    <t>565749</t>
+  </si>
+  <si>
+    <t>565806</t>
+  </si>
+  <si>
+    <t>565683</t>
+  </si>
+  <si>
+    <t>565705</t>
+  </si>
+  <si>
+    <t>565753</t>
+  </si>
+  <si>
+    <t>565752</t>
+  </si>
+  <si>
+    <t>565772</t>
+  </si>
+  <si>
+    <t>565719</t>
+  </si>
+  <si>
+    <t>565685</t>
+  </si>
+  <si>
+    <t>565805</t>
+  </si>
+  <si>
+    <t>S.No.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,13 +191,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -173,10 +258,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,292 +595,381 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BBADE0C-4966-4E1F-BDB0-2DD5300A7A8A}">
-  <dimension ref="B2:G22"/>
+  <dimension ref="B2:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="129" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="129" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.5546875" customWidth="1"/>
+    <col min="6" max="6" width="25.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="1" t="s">
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="5">
+        <v>2</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3">
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="7">
+        <v>7</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="5">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="5">
+        <v>2</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="7">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="5">
+        <v>2</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="5">
+        <v>10</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="5">
+        <v>2</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="8">
+        <v>11</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="10">
+        <v>3</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="10">
+        <v>12</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="10">
+        <v>3</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="8">
+        <v>13</v>
+      </c>
+      <c r="C15" s="9">
+        <v>565751</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="10">
+        <v>3</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="10">
+        <v>14</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="10">
+        <v>3</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="8">
+        <v>15</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="10">
+        <v>3</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="11">
+        <v>16</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
+      <c r="E18" s="11">
+        <v>4</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="13">
         <v>17</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2" t="s">
+      <c r="C19" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="11">
+        <v>4</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="11">
         <v>18</v>
       </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18">
+      <c r="C20" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="11">
         <v>4</v>
       </c>
-      <c r="F18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2" t="s">
+      <c r="F20" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="13">
+        <v>19</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="11">
         <v>4</v>
       </c>
-      <c r="E19">
-        <v>4</v>
-      </c>
-      <c r="F19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20">
-        <v>4</v>
-      </c>
-      <c r="F20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21">
-        <v>4</v>
-      </c>
-      <c r="F21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="F21" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="11"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D3:E21">
